--- a/biology/Médecine/Ofatumumab/Ofatumumab.xlsx
+++ b/biology/Médecine/Ofatumumab/Ofatumumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ofatumumab est un anticorps monoclonal ciblant le CD20, un antigène lymphocytaire et utilisé comme traitement anticancéreux.
 </t>
@@ -511,9 +523,11 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fixation de la molécule sur le CD20 entraîne l'activation du système du complément qui va modifier la membrane cellulaire provoquant la lyse de la cellule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fixation de la molécule sur le CD20 entraîne l'activation du système du complément qui va modifier la membrane cellulaire provoquant la lyse de la cellule.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ofatumumab améliore certaines leucémies lymphoïdes chroniques résistantes à la fludarabine[2]. En association avec le chlorambucil, il fait mieux que ce dernier donné seul, sur ces leucémies[3]. Il est également actif dans la leucémie aiguë lymphoblastique dans les formes CD20[4].
-Il est également utilisé dans le traitement de la sclérose en plaques et d'autres maladies auto-immunes[5]. Dans une étude randomisée en double aveugle de phase III ayant inclus plus de 1 800 patients répartis en deux bras, l'un recevant de l'ofatumumab et l'autre du tériflunomide, le bras recevant l'ofatumumab a connu significativement moins de rechutes de sclérose en plaques observées en IRM sur une période d'un an et demi[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ofatumumab améliore certaines leucémies lymphoïdes chroniques résistantes à la fludarabine. En association avec le chlorambucil, il fait mieux que ce dernier donné seul, sur ces leucémies. Il est également actif dans la leucémie aiguë lymphoblastique dans les formes CD20.
+Il est également utilisé dans le traitement de la sclérose en plaques et d'autres maladies auto-immunes. Dans une étude randomisée en double aveugle de phase III ayant inclus plus de 1 800 patients répartis en deux bras, l'un recevant de l'ofatumumab et l'autre du tériflunomide, le bras recevant l'ofatumumab a connu significativement moins de rechutes de sclérose en plaques observées en IRM sur une période d'un an et demi.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Autres molécules anti-CD20</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rituximab, l'ocrelizumab, le tositumomab et l'obinutuzumab sont d'autres anticorps monoclonaux se fixant sur une autre zone de la molécule CD20.
 </t>
